--- a/medicine/Médecine vétérinaire/Pseudomenopon_scopulacorne/Pseudomenopon_scopulacorne.xlsx
+++ b/medicine/Médecine vétérinaire/Pseudomenopon_scopulacorne/Pseudomenopon_scopulacorne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pseudomenopon scopulacorne est une espèce de poux de la famille des Menoponidae. On le trouve notamment sur certaines espèces d'oiseaux comme celles de la famille des Rallidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Pseudomenopon scopulacorne a été initialement décrite en 1842 par Henry Denny (d) sous le protonyme de Menopon scopulacorne[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Pseudomenopon scopulacorne a été initialement décrite en 1842 par Henry Denny (d) sous le protonyme de Menopon scopulacorne.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Henry Denny, Monographia anoplurorum Britanniae : An essay on the British species of parasitic insects belonging to the order of Anoplura of Leach, with the modern divisions of the general according to the views of Leach, Nitzsch, and Burmeister, Henry George Bohn, 1842, 262 p. (DOI 10.5962/BHL.TITLE.26900, lire en ligne)</t>
         </is>
